--- a/Modele/Sanwa PC500.xlsx
+++ b/Modele/Sanwa PC500.xlsx
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:G41"/>
+  <dimension ref="B15:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,47 +668,16 @@
     <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15" ht="39.6" customHeight="1">
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Zakres</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Punkt Pomiarowy</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>Wartość napięcia odniesienia</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>Zmierzona wartość napięcia</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Poprawka</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>Niepewność pomiaru</t>
-        </is>
-      </c>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>mV</t>
-        </is>
-      </c>
+      <c r="B16" s="3" t="inlineStr"/>
       <c r="C16" s="12" t="n"/>
       <c r="D16" s="12" t="n"/>
       <c r="E16" s="12" t="n"/>
@@ -716,241 +685,73 @@
       <c r="G16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>4.9978</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>24.9967</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>24.99</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>44.9941</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>44.99</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="B20" s="5" t="n"/>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>-45.0</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>-44.9909</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>-45.00</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>49.993</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>49.98</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>0.1443</t>
-        </is>
-      </c>
+      <c r="B21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="4" t="n"/>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>250.0</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>249.9951</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>250.0</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>-0.0049</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>450.0</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>449.9913</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>450.0</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>-0.0087</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>1.299</t>
-        </is>
-      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="B24" s="5" t="n"/>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>-450.0</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>-449.9773</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>-450.0</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>1.299</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Zakres</t>
         </is>
       </c>
       <c r="C25" s="12" t="n"/>
@@ -962,44 +763,40 @@
     <row r="26">
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>0.4999899</t>
-        </is>
-      </c>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
+      <c r="G26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="n"/>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>2.4999</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -1007,19 +804,27 @@
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>4.4999</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
+          <t>199.9</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>199.9</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -1027,163 +832,87 @@
       <c r="B29" s="5" t="n"/>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>-4.5</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>-4.499721</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>-4.500</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>0.000279</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="inlineStr"/>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>4.9999</t>
-        </is>
-      </c>
+          <t>-360.0</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="G30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="B31" s="4" t="n"/>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>25.0585</t>
-        </is>
-      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
+      <c r="G31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>44.932</t>
-        </is>
-      </c>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
+      <c r="G32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="B33" s="5" t="n"/>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>-45.0</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>-44.9373</t>
-        </is>
-      </c>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
+      <c r="G33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
+      <c r="B34" s="3" t="inlineStr"/>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>49.9128</t>
-        </is>
-      </c>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
+      <c r="G34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="B35" s="4" t="n"/>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>250.0</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>250.0109</t>
-        </is>
-      </c>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
+      <c r="G35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="B36" s="4" t="n"/>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>450.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr"/>
@@ -1195,23 +924,35 @@
       <c r="B37" s="5" t="n"/>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>-450.0</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>19.9999</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+      <c r="B38" s="3" t="inlineStr"/>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
@@ -1223,7 +964,7 @@
       <c r="B39" s="4" t="n"/>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr"/>
@@ -1235,7 +976,7 @@
       <c r="B40" s="4" t="n"/>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
@@ -1247,13 +988,29 @@
       <c r="B41" s="5" t="n"/>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>-900.0</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>100.0009</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>100.1</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>-0.0991</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1276,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:G35"/>
+  <dimension ref="B15:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,35 +1049,7 @@
     <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-    </row>
     <row r="15" ht="39.6" customHeight="1">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1353,7 +1082,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
           <t>mV</t>
@@ -1366,7 +1094,6 @@
       <c r="G16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
           <t>50</t>
@@ -1391,7 +1118,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="3" t="inlineStr">
         <is>
@@ -1412,7 +1138,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="5" t="n"/>
       <c r="C19" s="3" t="inlineStr">
         <is>
@@ -1425,7 +1150,6 @@
       <c r="G19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
           <t>500</t>
@@ -1442,7 +1166,6 @@
       <c r="G20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="3" t="inlineStr">
         <is>
@@ -1463,7 +1186,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="5" t="n"/>
       <c r="C22" s="3" t="inlineStr">
         <is>
@@ -1476,7 +1198,6 @@
       <c r="G22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
           <t>V</t>
@@ -1489,7 +1210,6 @@
       <c r="G23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
           <t>5</t>
@@ -1506,7 +1226,6 @@
       <c r="G24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="3" t="inlineStr">
         <is>
@@ -1519,7 +1238,6 @@
       <c r="G25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="5" t="n"/>
       <c r="C26" s="3" t="inlineStr">
         <is>
@@ -1532,7 +1250,6 @@
       <c r="G26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
           <t>50</t>
@@ -1549,7 +1266,6 @@
       <c r="G27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="3" t="inlineStr">
         <is>
@@ -1562,7 +1278,6 @@
       <c r="G28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" s="5" t="n"/>
       <c r="C29" s="3" t="inlineStr">
         <is>
@@ -1575,7 +1290,6 @@
       <c r="G29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
           <t>500</t>
@@ -1592,7 +1306,6 @@
       <c r="G30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="3" t="inlineStr">
         <is>
@@ -1605,7 +1318,6 @@
       <c r="G31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="5" t="n"/>
       <c r="C32" s="3" t="inlineStr">
         <is>
@@ -1618,7 +1330,6 @@
       <c r="G32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
           <t>1000</t>
@@ -1635,7 +1346,6 @@
       <c r="G33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" s="4" t="n"/>
       <c r="C34" s="3" t="inlineStr">
         <is>
@@ -1648,7 +1358,6 @@
       <c r="G34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" s="5" t="n"/>
       <c r="C35" s="3" t="inlineStr">
         <is>
@@ -1742,46 +1451,56 @@
       <c r="G16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="B20" s="5" t="n"/>
-      <c r="C20" s="3" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="inlineStr">
@@ -1796,130 +1515,160 @@
       <c r="G21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="B24" s="4" t="n"/>
-      <c r="C24" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="5" t="n"/>
-      <c r="C25" s="3" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="n"/>
-      <c r="C27" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="B29" s="5" t="n"/>
-      <c r="C29" s="3" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="B31" s="4" t="n"/>
-      <c r="C31" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="B32" s="4" t="n"/>
-      <c r="C32" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="B33" s="5" t="n"/>
-      <c r="C33" s="3" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="B34" s="3" t="inlineStr">
@@ -1934,88 +1683,108 @@
       <c r="G34" s="13" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="B36" s="4" t="n"/>
-      <c r="C36" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="n"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="B38" s="5" t="n"/>
-      <c r="C38" s="3" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="B39" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="B40" s="4" t="n"/>
-      <c r="C40" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="n"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="B41" s="4" t="n"/>
-      <c r="C41" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
-      <c r="G41" s="3" t="n"/>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="B42" s="5" t="n"/>
-      <c r="C42" s="3" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
-      <c r="G42" s="3" t="n"/>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2039,7 +1808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G36"/>
+  <dimension ref="A12:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,6 +1824,9 @@
     <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -2100,36 +1872,44 @@
       <c r="G16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="5" t="n"/>
-      <c r="C19" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="B20" s="3" t="inlineStr">
@@ -2144,100 +1924,124 @@
       <c r="G20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="4" t="n"/>
-      <c r="C22" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="5" t="n"/>
-      <c r="C23" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="5" t="n"/>
-      <c r="C26" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="B29" s="5" t="n"/>
-      <c r="C29" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="B30" s="3" t="inlineStr">
@@ -2252,68 +2056,84 @@
       <c r="G30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="B32" s="4" t="n"/>
-      <c r="C32" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="B33" s="5" t="n"/>
-      <c r="C33" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
-      <c r="G34" s="3" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="B35" s="4" t="n"/>
-      <c r="C35" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="B36" s="5" t="n"/>
-      <c r="C36" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="n"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2337,7 +2157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G32"/>
+  <dimension ref="A12:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -2353,7 +2173,35 @@
     <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
     <row r="15" ht="39.6" customHeight="1">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2386,6 +2234,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>Ω</t>
@@ -2395,51 +2244,66 @@
       <c r="D16" s="14" t="n"/>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="15" t="n"/>
-      <c r="G16" s="7" t="n"/>
+      <c r="G16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr"/>
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="16" t="n"/>
-      <c r="C18" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr"/>
+      <c r="G18" s="9" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="10" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="10" t="n"/>
-      <c r="G19" s="9" t="n"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr"/>
+      <c r="D19" s="10" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
+      <c r="F19" s="10" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="16" t="n"/>
-      <c r="C20" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr"/>
+      <c r="G20" s="9" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="9" t="inlineStr">
         <is>
           <t>kΩ</t>
@@ -2452,68 +2316,89 @@
       <c r="G21" s="18" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr"/>
+      <c r="F22" s="9" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="16" t="n"/>
-      <c r="C23" s="9" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D23" s="9" t="n"/>
-      <c r="E23" s="9" t="n"/>
-      <c r="F23" s="9" t="n"/>
-      <c r="G23" s="9" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr"/>
+      <c r="E23" s="9" t="inlineStr"/>
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="9" t="n"/>
-      <c r="E24" s="9" t="n"/>
-      <c r="F24" s="9" t="n"/>
-      <c r="G24" s="9" t="n"/>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr"/>
+      <c r="E24" s="9" t="inlineStr"/>
+      <c r="F24" s="9" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="16" t="n"/>
-      <c r="C25" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="9" t="n"/>
-      <c r="F25" s="9" t="n"/>
-      <c r="G25" s="9" t="n"/>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr"/>
+      <c r="E25" s="9" t="inlineStr"/>
+      <c r="F25" s="9" t="inlineStr"/>
+      <c r="G25" s="9" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="10" t="n"/>
-      <c r="E26" s="10" t="n"/>
-      <c r="F26" s="10" t="n"/>
-      <c r="G26" s="9" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr"/>
+      <c r="D26" s="10" t="inlineStr"/>
+      <c r="E26" s="10" t="inlineStr"/>
+      <c r="F26" s="10" t="inlineStr"/>
+      <c r="G26" s="9" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="16" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="10" t="n"/>
-      <c r="E27" s="9" t="n"/>
-      <c r="F27" s="9" t="n"/>
-      <c r="G27" s="9" t="n"/>
+      <c r="C27" s="10" t="inlineStr"/>
+      <c r="D27" s="10" t="inlineStr"/>
+      <c r="E27" s="9" t="inlineStr"/>
+      <c r="F27" s="9" t="inlineStr"/>
+      <c r="G27" s="9" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="9" t="inlineStr">
         <is>
           <t>MΩ</t>
@@ -2526,48 +2411,64 @@
       <c r="G28" s="18" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="9" t="n"/>
-      <c r="E29" s="9" t="n"/>
-      <c r="F29" s="9" t="n"/>
-      <c r="G29" s="9" t="n"/>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="inlineStr"/>
+      <c r="E29" s="9" t="inlineStr"/>
+      <c r="F29" s="9" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr"/>
       <c r="B30" s="16" t="n"/>
-      <c r="C30" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="9" t="n"/>
-      <c r="G30" s="9" t="n"/>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr"/>
+      <c r="E30" s="9" t="inlineStr"/>
+      <c r="F30" s="9" t="inlineStr"/>
+      <c r="G30" s="9" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="B31" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C31" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="9" t="n"/>
-      <c r="F31" s="9" t="n"/>
-      <c r="G31" s="9" t="n"/>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr"/>
+      <c r="E31" s="9" t="inlineStr"/>
+      <c r="F31" s="9" t="inlineStr"/>
+      <c r="G31" s="9" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="16" t="n"/>
-      <c r="C32" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="D32" s="9" t="n"/>
-      <c r="E32" s="9" t="n"/>
-      <c r="F32" s="9" t="n"/>
-      <c r="G32" s="9" t="n"/>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr"/>
+      <c r="E32" s="9" t="inlineStr"/>
+      <c r="F32" s="9" t="inlineStr"/>
+      <c r="G32" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="10">
